--- a/ArticleManage/main_working_folder/output_folders/Data 136 Preparation and characterization of/Data136_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 136 Preparation and characterization of/Data136_all_graphs_excel.xlsx
@@ -5,16 +5,16 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="0.5h_f5" sheetId="1" r:id="rId1"/>
-    <sheet name="1.5h_f5" sheetId="2" r:id="rId4"/>
-    <sheet name="1h_f5" sheetId="3" r:id="rId5"/>
-    <sheet name="2.5h_f5" sheetId="4" r:id="rId6"/>
-    <sheet name="2h_f5" sheetId="5" r:id="rId7"/>
-    <sheet name="700_f3" sheetId="6" r:id="rId8"/>
-    <sheet name="750_f3" sheetId="7" r:id="rId9"/>
-    <sheet name="800_f3" sheetId="8" r:id="rId10"/>
-    <sheet name="850_f3" sheetId="9" r:id="rId11"/>
-    <sheet name="900_f3" sheetId="10" r:id="rId12"/>
+    <sheet name="Figure 3 700_f3  0-1-0-900 " sheetId="1" r:id="rId1"/>
+    <sheet name="Figure 3 750_f3  0-1-0-900 " sheetId="2" r:id="rId4"/>
+    <sheet name="Figure 3 800_f3  0-1-0-900 " sheetId="3" r:id="rId5"/>
+    <sheet name="Figure 3 850_f3  0-1-0-900 " sheetId="4" r:id="rId6"/>
+    <sheet name="Figure 3 900_f3  0-1-0-900 " sheetId="5" r:id="rId7"/>
+    <sheet name="Figure 5 0.5h_f5  0-1-0-900 " sheetId="6" r:id="rId8"/>
+    <sheet name="Figure 5 1.5h_f5  0-1-0-900 " sheetId="7" r:id="rId9"/>
+    <sheet name="Figure 5 1h_f5  0-1-0-900 " sheetId="8" r:id="rId10"/>
+    <sheet name="Figure 5 2.5h_f5  0-1-0-900 " sheetId="9" r:id="rId11"/>
+    <sheet name="Figure 5 2h_f5  0-1-0-900 " sheetId="10" r:id="rId12"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -23,13 +23,28 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
-    <t>0.5h_f5</t>
+    <t>700_f3</t>
   </si>
   <si>
     <t>X</t>
   </si>
   <si>
     <t>Y</t>
+  </si>
+  <si>
+    <t>750_f3</t>
+  </si>
+  <si>
+    <t>800_f3</t>
+  </si>
+  <si>
+    <t>850_f3</t>
+  </si>
+  <si>
+    <t>900_f3</t>
+  </si>
+  <si>
+    <t>0.5h_f5</t>
   </si>
   <si>
     <t>1.5h_f5</t>
@@ -42,21 +57,6 @@
   </si>
   <si>
     <t>2h_f5</t>
-  </si>
-  <si>
-    <t>700_f3</t>
-  </si>
-  <si>
-    <t>750_f3</t>
-  </si>
-  <si>
-    <t>800_f3</t>
-  </si>
-  <si>
-    <t>850_f3</t>
-  </si>
-  <si>
-    <t>900_f3</t>
   </si>
 </sst>
 </file>
@@ -133,7 +133,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki 0.5h_f5</a:t>
+              <a:t>Izoterma adsorpcji probki 700_f3 z wykresu 'Figure 3' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -192,12 +192,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'0.5h_f5'!$A$3:$A$50</c:f>
+              <c:f>'Figure 3 700_f3  0-1-0-900 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'0.5h_f5'!$B$3:$B$50</c:f>
+              <c:f>'Figure 3 700_f3  0-1-0-900 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -210,6 +210,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -279,6 +281,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="900"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -443,7 +447,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki 900_f3</a:t>
+              <a:t>Izoterma adsorpcji probki 2h_f5 z wykresu 'Figure 5' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -502,12 +506,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'900_f3'!$A$3:$A$50</c:f>
+              <c:f>'Figure 5 2h_f5  0-1-0-900 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'900_f3'!$B$3:$B$50</c:f>
+              <c:f>'Figure 5 2h_f5  0-1-0-900 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -520,6 +524,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -589,6 +595,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="900"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -753,7 +761,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki 1.5h_f5</a:t>
+              <a:t>Izoterma adsorpcji probki 750_f3 z wykresu 'Figure 3' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -812,12 +820,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'1.5h_f5'!$A$3:$A$50</c:f>
+              <c:f>'Figure 3 750_f3  0-1-0-900 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'1.5h_f5'!$B$3:$B$50</c:f>
+              <c:f>'Figure 3 750_f3  0-1-0-900 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -830,6 +838,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -899,6 +909,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="900"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1063,7 +1075,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki 1h_f5</a:t>
+              <a:t>Izoterma adsorpcji probki 800_f3 z wykresu 'Figure 3' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1122,12 +1134,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'1h_f5'!$A$3:$A$50</c:f>
+              <c:f>'Figure 3 800_f3  0-1-0-900 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'1h_f5'!$B$3:$B$50</c:f>
+              <c:f>'Figure 3 800_f3  0-1-0-900 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1140,6 +1152,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1209,6 +1223,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="900"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1373,7 +1389,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki 2.5h_f5</a:t>
+              <a:t>Izoterma adsorpcji probki 850_f3 z wykresu 'Figure 3' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1432,12 +1448,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'2.5h_f5'!$A$3:$A$50</c:f>
+              <c:f>'Figure 3 850_f3  0-1-0-900 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'2.5h_f5'!$B$3:$B$50</c:f>
+              <c:f>'Figure 3 850_f3  0-1-0-900 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1450,6 +1466,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1519,6 +1537,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="900"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1683,7 +1703,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki 2h_f5</a:t>
+              <a:t>Izoterma adsorpcji probki 900_f3 z wykresu 'Figure 3' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1742,12 +1762,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'2h_f5'!$A$3:$A$50</c:f>
+              <c:f>'Figure 3 900_f3  0-1-0-900 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'2h_f5'!$B$3:$B$50</c:f>
+              <c:f>'Figure 3 900_f3  0-1-0-900 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1760,6 +1780,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1829,6 +1851,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="900"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1993,7 +2017,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki 700_f3</a:t>
+              <a:t>Izoterma adsorpcji probki 0.5h_f5 z wykresu 'Figure 5' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2052,12 +2076,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'700_f3'!$A$3:$A$50</c:f>
+              <c:f>'Figure 5 0.5h_f5  0-1-0-900 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'700_f3'!$B$3:$B$50</c:f>
+              <c:f>'Figure 5 0.5h_f5  0-1-0-900 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -2070,6 +2094,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -2139,6 +2165,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="900"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2303,7 +2331,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki 750_f3</a:t>
+              <a:t>Izoterma adsorpcji probki 1.5h_f5 z wykresu 'Figure 5' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2362,12 +2390,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'750_f3'!$A$3:$A$50</c:f>
+              <c:f>'Figure 5 1.5h_f5  0-1-0-900 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'750_f3'!$B$3:$B$50</c:f>
+              <c:f>'Figure 5 1.5h_f5  0-1-0-900 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -2380,6 +2408,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -2449,6 +2479,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="900"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2613,7 +2645,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki 800_f3</a:t>
+              <a:t>Izoterma adsorpcji probki 1h_f5 z wykresu 'Figure 5' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2672,12 +2704,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'800_f3'!$A$3:$A$50</c:f>
+              <c:f>'Figure 5 1h_f5  0-1-0-900 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'800_f3'!$B$3:$B$50</c:f>
+              <c:f>'Figure 5 1h_f5  0-1-0-900 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -2690,6 +2722,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -2759,6 +2793,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="900"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2923,7 +2959,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki 850_f3</a:t>
+              <a:t>Izoterma adsorpcji probki 2.5h_f5 z wykresu 'Figure 5' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2982,12 +3018,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'850_f3'!$A$3:$A$50</c:f>
+              <c:f>'Figure 5 2.5h_f5  0-1-0-900 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'850_f3'!$B$3:$B$50</c:f>
+              <c:f>'Figure 5 2.5h_f5  0-1-0-900 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -3000,6 +3036,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -3069,6 +3107,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="900"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -9457,6 +9497,630 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>0.0128</v>
+      </c>
+      <c r="B3" s="0">
+        <v>456.1912</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>0.0497</v>
+      </c>
+      <c r="B4" s="0">
+        <v>548.3219</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>0.0856</v>
+      </c>
+      <c r="B5" s="0">
+        <v>569.4275</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>0.1117</v>
+      </c>
+      <c r="B6" s="0">
+        <v>582.6989</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>0.1365</v>
+      </c>
+      <c r="B7" s="0">
+        <v>591.3891</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>0.1681</v>
+      </c>
+      <c r="B8" s="0">
+        <v>599.7448</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>0.1943</v>
+      </c>
+      <c r="B9" s="0">
+        <v>607.1217</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>0.2192</v>
+      </c>
+      <c r="B10" s="0">
+        <v>610.624</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>0.2478</v>
+      </c>
+      <c r="B11" s="0">
+        <v>614.9772</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>0.2724</v>
+      </c>
+      <c r="B12" s="0">
+        <v>616.818</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
+        <v>0.3003</v>
+      </c>
+      <c r="B13" s="0">
+        <v>619.6081</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>0.3265</v>
+      </c>
+      <c r="B14" s="0">
+        <v>621.3581</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
+        <v>0.3527</v>
+      </c>
+      <c r="B15" s="0">
+        <v>622.995</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
+        <v>0.3767</v>
+      </c>
+      <c r="B16" s="0">
+        <v>623.9582</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
+        <v>0.4042</v>
+      </c>
+      <c r="B17" s="0">
+        <v>625.1237</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0">
+        <v>0.4313</v>
+      </c>
+      <c r="B18" s="0">
+        <v>626.096</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0">
+        <v>0.4575</v>
+      </c>
+      <c r="B19" s="0">
+        <v>627.4501</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0">
+        <v>0.4833</v>
+      </c>
+      <c r="B20" s="0">
+        <v>627.6364</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0">
+        <v>0.5034</v>
+      </c>
+      <c r="B21" s="0">
+        <v>628.2223</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0">
+        <v>0.5509</v>
+      </c>
+      <c r="B22" s="0">
+        <v>630.8757</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0">
+        <v>0.6016</v>
+      </c>
+      <c r="B23" s="0">
+        <v>631.4388</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0">
+        <v>0.6508</v>
+      </c>
+      <c r="B24" s="0">
+        <v>631.6286</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0">
+        <v>0.7016</v>
+      </c>
+      <c r="B25" s="0">
+        <v>633.021</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0">
+        <v>0.7515</v>
+      </c>
+      <c r="B26" s="0">
+        <v>632.9885</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0">
+        <v>0.8015</v>
+      </c>
+      <c r="B27" s="0">
+        <v>632.9444</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0">
+        <v>0.8522</v>
+      </c>
+      <c r="B28" s="0">
+        <v>633.7337</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0">
+        <v>0.8785</v>
+      </c>
+      <c r="B29" s="0">
+        <v>633.7306</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0">
+        <v>0.9047</v>
+      </c>
+      <c r="B30" s="0">
+        <v>634.7454</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0">
+        <v>0.9283</v>
+      </c>
+      <c r="B31" s="0">
+        <v>635.5348</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0">
+        <v>0.953</v>
+      </c>
+      <c r="B32" s="0">
+        <v>637.1237</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0">
+        <v>0.9939</v>
+      </c>
+      <c r="B33" s="0">
+        <v>653.8105</v>
+      </c>
+    </row>
+    <row r="34"/>
+  </sheetData>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>0.0111</v>
+      </c>
+      <c r="B3" s="0">
+        <v>464.6853</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>0.029</v>
+      </c>
+      <c r="B4" s="0">
+        <v>504.5799</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>0.0367</v>
+      </c>
+      <c r="B5" s="0">
+        <v>523.0008</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>0.049</v>
+      </c>
+      <c r="B6" s="0">
+        <v>557.3514</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>0.0735</v>
+      </c>
+      <c r="B7" s="0">
+        <v>578.9606</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>0.0981</v>
+      </c>
+      <c r="B8" s="0">
+        <v>606.0771</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>0.1242</v>
+      </c>
+      <c r="B9" s="0">
+        <v>622.9383</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>0.1504</v>
+      </c>
+      <c r="B10" s="0">
+        <v>641.8953</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>0.177</v>
+      </c>
+      <c r="B11" s="0">
+        <v>652.2697</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>0.2027</v>
+      </c>
+      <c r="B12" s="0">
+        <v>661.1014</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
+        <v>0.2289</v>
+      </c>
+      <c r="B13" s="0">
+        <v>668.6321</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>0.2551</v>
+      </c>
+      <c r="B14" s="0">
+        <v>673.5582</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
+        <v>0.2831</v>
+      </c>
+      <c r="B15" s="0">
+        <v>681.6929</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
+        <v>0.3049</v>
+      </c>
+      <c r="B16" s="0">
+        <v>684.3294</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
+        <v>0.3333</v>
+      </c>
+      <c r="B17" s="0">
+        <v>690.9638</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0">
+        <v>0.3588</v>
+      </c>
+      <c r="B18" s="0">
+        <v>693.4486</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0">
+        <v>0.3859</v>
+      </c>
+      <c r="B19" s="0">
+        <v>698.5662</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0">
+        <v>0.412</v>
+      </c>
+      <c r="B20" s="0">
+        <v>701.0764</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0">
+        <v>0.4382</v>
+      </c>
+      <c r="B21" s="0">
+        <v>705.7383</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0">
+        <v>0.4586</v>
+      </c>
+      <c r="B22" s="0">
+        <v>708.3848</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0">
+        <v>0.4921</v>
+      </c>
+      <c r="B23" s="0">
+        <v>711.7213</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0">
+        <v>0.5171</v>
+      </c>
+      <c r="B24" s="0">
+        <v>714.3372</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0">
+        <v>0.545</v>
+      </c>
+      <c r="B25" s="0">
+        <v>716.4712</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0">
+        <v>0.571</v>
+      </c>
+      <c r="B26" s="0">
+        <v>719.0482</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0">
+        <v>0.5967</v>
+      </c>
+      <c r="B27" s="0">
+        <v>721.0356</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0">
+        <v>0.6229</v>
+      </c>
+      <c r="B28" s="0">
+        <v>722.4228</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0">
+        <v>0.6491</v>
+      </c>
+      <c r="B29" s="0">
+        <v>724.8576</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0">
+        <v>0.6754</v>
+      </c>
+      <c r="B30" s="0">
+        <v>726.3515</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0">
+        <v>0.7014</v>
+      </c>
+      <c r="B31" s="0">
+        <v>728.8777</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0">
+        <v>0.7276</v>
+      </c>
+      <c r="B32" s="0">
+        <v>729.98</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0">
+        <v>0.7537</v>
+      </c>
+      <c r="B33" s="0">
+        <v>732.0108</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0">
+        <v>0.7798</v>
+      </c>
+      <c r="B34" s="0">
+        <v>733.2565</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0">
+        <v>0.806</v>
+      </c>
+      <c r="B35" s="0">
+        <v>735.3515</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0">
+        <v>0.8321</v>
+      </c>
+      <c r="B36" s="0">
+        <v>737.4389</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0">
+        <v>0.8583</v>
+      </c>
+      <c r="B37" s="0">
+        <v>738.6733</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0">
+        <v>0.8845</v>
+      </c>
+      <c r="B38" s="0">
+        <v>741.7422</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0">
+        <v>0.9106</v>
+      </c>
+      <c r="B39" s="0">
+        <v>742.4103</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0">
+        <v>0.9368</v>
+      </c>
+      <c r="B40" s="0">
+        <v>746.2606</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0">
+        <v>0.9629</v>
+      </c>
+      <c r="B41" s="0">
+        <v>751.5831</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0">
+        <v>0.9891</v>
+      </c>
+      <c r="B42" s="0">
+        <v>763.6548</v>
+      </c>
+    </row>
+    <row r="43"/>
+  </sheetData>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:B51"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -9465,7 +10129,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2">
@@ -9481,383 +10145,383 @@
         <v>0.04</v>
       </c>
       <c r="B3" s="0">
-        <v>537.008</v>
+        <v>563.1683</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="B4" s="0">
-        <v>565.9035</v>
+        <v>612.3285</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="B5" s="0">
-        <v>590.3494</v>
+        <v>627.2217</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="B6" s="0">
-        <v>607.3471</v>
+        <v>637.0156</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.12</v>
+        <v>0.14</v>
       </c>
       <c r="B7" s="0">
-        <v>619.1296</v>
+        <v>648.9676</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.14</v>
+        <v>0.16</v>
       </c>
       <c r="B8" s="0">
-        <v>627.6178</v>
+        <v>655.8077</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.16</v>
+        <v>0.18</v>
       </c>
       <c r="B9" s="0">
-        <v>632.8665</v>
+        <v>656.4085</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.18</v>
+        <v>0.24</v>
       </c>
       <c r="B10" s="0">
-        <v>637.5383</v>
+        <v>668.9594</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.2</v>
+        <v>0.26</v>
       </c>
       <c r="B11" s="0">
-        <v>643.1926</v>
+        <v>671.5979</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.22</v>
+        <v>0.42</v>
       </c>
       <c r="B12" s="0">
-        <v>647.9318</v>
+        <v>681.6782</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.24</v>
+        <v>0.48</v>
       </c>
       <c r="B13" s="0">
-        <v>651.3642</v>
+        <v>684.9767</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.26</v>
+        <v>0.5</v>
       </c>
       <c r="B14" s="0">
-        <v>654.0938</v>
+        <v>684.475</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.28</v>
+        <v>0.52</v>
       </c>
       <c r="B15" s="0">
-        <v>656.3731</v>
+        <v>686.666</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.3</v>
+        <v>0.54</v>
       </c>
       <c r="B16" s="0">
-        <v>658.3451</v>
+        <v>687.0393</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.32</v>
+        <v>0.56</v>
       </c>
       <c r="B17" s="0">
-        <v>660.2305</v>
+        <v>686.8471</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.34</v>
+        <v>0.58</v>
       </c>
       <c r="B18" s="0">
-        <v>661.936</v>
+        <v>688.3098</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.36</v>
+        <v>0.6</v>
       </c>
       <c r="B19" s="0">
-        <v>663.4216</v>
+        <v>688.0851</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.38</v>
+        <v>0.62</v>
       </c>
       <c r="B20" s="0">
-        <v>664.8077</v>
+        <v>688.2336</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.4</v>
+        <v>0.64</v>
       </c>
       <c r="B21" s="0">
-        <v>666.1189</v>
+        <v>688.3248</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.42</v>
+        <v>0.66</v>
       </c>
       <c r="B22" s="0">
-        <v>667.2762</v>
+        <v>688.1919</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.44</v>
+        <v>0.68</v>
       </c>
       <c r="B23" s="0">
-        <v>668.3531</v>
+        <v>688.9651</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.46</v>
+        <v>0.7</v>
       </c>
       <c r="B24" s="0">
-        <v>669.4976</v>
+        <v>689.6812</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.48</v>
+        <v>0.72</v>
       </c>
       <c r="B25" s="0">
-        <v>670.6973</v>
+        <v>689.9893</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.5</v>
+        <v>0.74</v>
       </c>
       <c r="B26" s="0">
-        <v>671.8645</v>
+        <v>690.1015</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.52</v>
+        <v>0.76</v>
       </c>
       <c r="B27" s="0">
-        <v>672.9091</v>
+        <v>690.0756</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.54</v>
+        <v>0.78</v>
       </c>
       <c r="B28" s="0">
-        <v>673.7678</v>
+        <v>690.148</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.56</v>
+        <v>0.8</v>
       </c>
       <c r="B29" s="0">
-        <v>674.4495</v>
+        <v>690.101</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.58</v>
+        <v>0.82</v>
       </c>
       <c r="B30" s="0">
-        <v>674.9888</v>
+        <v>690.2924</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.6</v>
+        <v>0.84</v>
       </c>
       <c r="B31" s="0">
-        <v>675.5643</v>
+        <v>690.5773</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.62</v>
+        <v>0.86</v>
       </c>
       <c r="B32" s="0">
-        <v>676.0533</v>
+        <v>691.0181</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.64</v>
+        <v>0.88</v>
       </c>
       <c r="B33" s="0">
-        <v>676.5903</v>
+        <v>691.3732</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.66</v>
+        <v>0.9</v>
       </c>
       <c r="B34" s="0">
-        <v>677.107</v>
+        <v>692.1722</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>0.68</v>
+        <v>0.92</v>
       </c>
       <c r="B35" s="0">
-        <v>677.9129</v>
+        <v>693.165</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>0.7</v>
+        <v>0.94</v>
       </c>
       <c r="B36" s="0">
-        <v>678.6563</v>
+        <v>694.0763</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>0.72</v>
+        <v>0.96</v>
       </c>
       <c r="B37" s="0">
-        <v>679.4305</v>
+        <v>698.3489</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>0.74</v>
+        <v>0.98</v>
       </c>
       <c r="B38" s="0">
-        <v>680.293</v>
+        <v>707.2193</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>0.76</v>
+        <v>0.3986</v>
       </c>
       <c r="B39" s="0">
-        <v>681.0397</v>
+        <v>681.7732</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>0.78</v>
+        <v>0.3605</v>
       </c>
       <c r="B40" s="0">
-        <v>681.3442</v>
+        <v>679.5843</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>0.8</v>
+        <v>0.3399</v>
       </c>
       <c r="B41" s="0">
-        <v>681.3311</v>
+        <v>677.3556</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>0.82</v>
+        <v>0.312</v>
       </c>
       <c r="B42" s="0">
-        <v>681.1347</v>
+        <v>676.2811</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>0.84</v>
+        <v>0.2884</v>
       </c>
       <c r="B43" s="0">
-        <v>681.0468</v>
+        <v>674.0594</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>0.86</v>
+        <v>0.2132</v>
       </c>
       <c r="B44" s="0">
-        <v>681.8292</v>
+        <v>663.9902</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>0.88</v>
+        <v>0.0505</v>
       </c>
       <c r="B45" s="0">
-        <v>682.6618</v>
+        <v>585.8523</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>0.9</v>
+        <v>0.0597</v>
       </c>
       <c r="B46" s="0">
-        <v>682.6813</v>
+        <v>596.0714</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>0.92</v>
+        <v>0.0124</v>
       </c>
       <c r="B47" s="0">
-        <v>683.274</v>
+        <v>497.1906</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>0.94</v>
+        <v>0.9949</v>
       </c>
       <c r="B48" s="0">
-        <v>685.7925</v>
+        <v>715.6881</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>0.96</v>
+        <v>0.4614</v>
       </c>
       <c r="B49" s="0">
-        <v>692.6241</v>
+        <v>685.0436</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="0">
-        <v>0.9905</v>
+        <v>0.4398</v>
       </c>
       <c r="B50" s="0">
-        <v>701.7722</v>
+        <v>683.9551</v>
       </c>
     </row>
     <row r="51"/>
@@ -9867,7 +10531,647 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>0.05</v>
+      </c>
+      <c r="B3" s="0">
+        <v>614.7199</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>0.0988</v>
+      </c>
+      <c r="B4" s="0">
+        <v>678.8873</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>0.1504</v>
+      </c>
+      <c r="B5" s="0">
+        <v>712.1587</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>0.187</v>
+      </c>
+      <c r="B6" s="0">
+        <v>730.2519</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>0.2118</v>
+      </c>
+      <c r="B7" s="0">
+        <v>738.2256</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>0.2397</v>
+      </c>
+      <c r="B8" s="0">
+        <v>747.4365</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>0.2659</v>
+      </c>
+      <c r="B9" s="0">
+        <v>751.9574</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>0.2921</v>
+      </c>
+      <c r="B10" s="0">
+        <v>757.779</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>0.3171</v>
+      </c>
+      <c r="B11" s="0">
+        <v>760.2021</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>0.3445</v>
+      </c>
+      <c r="B12" s="0">
+        <v>763.9255</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
+        <v>0.3716</v>
+      </c>
+      <c r="B13" s="0">
+        <v>766.2501</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>0.3992</v>
+      </c>
+      <c r="B14" s="0">
+        <v>768.7961</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
+        <v>0.4231</v>
+      </c>
+      <c r="B15" s="0">
+        <v>773.1452</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
+        <v>0.451</v>
+      </c>
+      <c r="B16" s="0">
+        <v>773.2757</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
+        <v>0.5001</v>
+      </c>
+      <c r="B17" s="0">
+        <v>776.3954</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0">
+        <v>0.55</v>
+      </c>
+      <c r="B18" s="0">
+        <v>778.1243</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0">
+        <v>0.6016</v>
+      </c>
+      <c r="B19" s="0">
+        <v>780.0635</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0">
+        <v>0.6516</v>
+      </c>
+      <c r="B20" s="0">
+        <v>782.7591</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0">
+        <v>0.7007</v>
+      </c>
+      <c r="B21" s="0">
+        <v>784.1552</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0">
+        <v>0.7409</v>
+      </c>
+      <c r="B22" s="0">
+        <v>785.5418</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0">
+        <v>0.796</v>
+      </c>
+      <c r="B23" s="0">
+        <v>788.1558</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0">
+        <v>0.8514</v>
+      </c>
+      <c r="B24" s="0">
+        <v>788.3536</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0">
+        <v>0.9014</v>
+      </c>
+      <c r="B25" s="0">
+        <v>794.2892</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0">
+        <v>0.9522</v>
+      </c>
+      <c r="B26" s="0">
+        <v>796.9624</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0">
+        <v>0.8115</v>
+      </c>
+      <c r="B27" s="0">
+        <v>788.9244</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0">
+        <v>0.7621</v>
+      </c>
+      <c r="B28" s="0">
+        <v>787.8991</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0">
+        <v>0.9949</v>
+      </c>
+      <c r="B29" s="0">
+        <v>802.1609</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0">
+        <v>0.9835</v>
+      </c>
+      <c r="B30" s="0">
+        <v>801.0489</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0">
+        <v>0.0124</v>
+      </c>
+      <c r="B31" s="0">
+        <v>523.36</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0">
+        <v>0.0072</v>
+      </c>
+      <c r="B32" s="0">
+        <v>504.0291</v>
+      </c>
+    </row>
+    <row r="33"/>
+  </sheetData>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B46"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>0.0085</v>
+      </c>
+      <c r="B3" s="0">
+        <v>423.685</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>0.0054</v>
+      </c>
+      <c r="B4" s="0">
+        <v>177.111</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>0.0071</v>
+      </c>
+      <c r="B5" s="0">
+        <v>328.0166</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>0.0071</v>
+      </c>
+      <c r="B6" s="0">
+        <v>261.7469</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>0.0251</v>
+      </c>
+      <c r="B7" s="0">
+        <v>473.1032</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>0.0366</v>
+      </c>
+      <c r="B8" s="0">
+        <v>501.0004</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>0.0491</v>
+      </c>
+      <c r="B9" s="0">
+        <v>531.6569</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>0.0734</v>
+      </c>
+      <c r="B10" s="0">
+        <v>566.1842</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>0.0967</v>
+      </c>
+      <c r="B11" s="0">
+        <v>595.8675</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>0.1234</v>
+      </c>
+      <c r="B12" s="0">
+        <v>619.5017</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
+        <v>0.1496</v>
+      </c>
+      <c r="B13" s="0">
+        <v>641.2918</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>0.1758</v>
+      </c>
+      <c r="B14" s="0">
+        <v>656.8187</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
+        <v>0.202</v>
+      </c>
+      <c r="B15" s="0">
+        <v>671.9872</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
+        <v>0.2282</v>
+      </c>
+      <c r="B16" s="0">
+        <v>683.7547</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
+        <v>0.2544</v>
+      </c>
+      <c r="B17" s="0">
+        <v>692.3796</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0">
+        <v>0.2806</v>
+      </c>
+      <c r="B18" s="0">
+        <v>701.0852</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0">
+        <v>0.3068</v>
+      </c>
+      <c r="B19" s="0">
+        <v>706.624</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0">
+        <v>0.333</v>
+      </c>
+      <c r="B20" s="0">
+        <v>713.8594</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0">
+        <v>0.3592</v>
+      </c>
+      <c r="B21" s="0">
+        <v>717.419</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0">
+        <v>0.386</v>
+      </c>
+      <c r="B22" s="0">
+        <v>721.318</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0">
+        <v>0.4116</v>
+      </c>
+      <c r="B23" s="0">
+        <v>724.2554</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0">
+        <v>0.4384</v>
+      </c>
+      <c r="B24" s="0">
+        <v>729.3736</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0">
+        <v>0.4639</v>
+      </c>
+      <c r="B25" s="0">
+        <v>731.8259</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0">
+        <v>0.491</v>
+      </c>
+      <c r="B26" s="0">
+        <v>734.64</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0">
+        <v>0.5165</v>
+      </c>
+      <c r="B27" s="0">
+        <v>737.3438</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0">
+        <v>0.5476</v>
+      </c>
+      <c r="B28" s="0">
+        <v>740.9111</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0">
+        <v>0.5747</v>
+      </c>
+      <c r="B29" s="0">
+        <v>742.872</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0">
+        <v>0.6</v>
+      </c>
+      <c r="B30" s="0">
+        <v>745.5722</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0">
+        <v>0.6278</v>
+      </c>
+      <c r="B31" s="0">
+        <v>747.6275</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0">
+        <v>0.6533</v>
+      </c>
+      <c r="B32" s="0">
+        <v>750.8457</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0">
+        <v>0.6803</v>
+      </c>
+      <c r="B33" s="0">
+        <v>752.9522</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0">
+        <v>0.7065</v>
+      </c>
+      <c r="B34" s="0">
+        <v>755.3657</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0">
+        <v>0.7327</v>
+      </c>
+      <c r="B35" s="0">
+        <v>757.9073</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0">
+        <v>0.7589</v>
+      </c>
+      <c r="B36" s="0">
+        <v>759.5631</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0">
+        <v>0.7867</v>
+      </c>
+      <c r="B37" s="0">
+        <v>764.4007</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0">
+        <v>0.8104</v>
+      </c>
+      <c r="B38" s="0">
+        <v>765.3487</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0">
+        <v>0.8375</v>
+      </c>
+      <c r="B39" s="0">
+        <v>770.3134</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0">
+        <v>0.8631</v>
+      </c>
+      <c r="B40" s="0">
+        <v>773.6751</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0">
+        <v>0.8901</v>
+      </c>
+      <c r="B41" s="0">
+        <v>780.7204</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0">
+        <v>0.915</v>
+      </c>
+      <c r="B42" s="0">
+        <v>785.0163</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0">
+        <v>0.9423</v>
+      </c>
+      <c r="B43" s="0">
+        <v>790.9834</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0">
+        <v>0.9685</v>
+      </c>
+      <c r="B44" s="0">
+        <v>805.3818</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="0">
+        <v>0.9939</v>
+      </c>
+      <c r="B45" s="0">
+        <v>827.0059</v>
+      </c>
+    </row>
+    <row r="46"/>
+  </sheetData>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:B34"/>
   <sheetViews>
@@ -9877,7 +11181,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2">
@@ -10143,7 +11447,419 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>0.04</v>
+      </c>
+      <c r="B3" s="0">
+        <v>537.008</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>0.06</v>
+      </c>
+      <c r="B4" s="0">
+        <v>565.9035</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>0.08</v>
+      </c>
+      <c r="B5" s="0">
+        <v>590.3494</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>0.1</v>
+      </c>
+      <c r="B6" s="0">
+        <v>607.3471</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>0.12</v>
+      </c>
+      <c r="B7" s="0">
+        <v>619.1296</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>0.14</v>
+      </c>
+      <c r="B8" s="0">
+        <v>627.6178</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>0.16</v>
+      </c>
+      <c r="B9" s="0">
+        <v>632.8665</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>0.18</v>
+      </c>
+      <c r="B10" s="0">
+        <v>637.5383</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>0.2</v>
+      </c>
+      <c r="B11" s="0">
+        <v>643.1926</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>0.22</v>
+      </c>
+      <c r="B12" s="0">
+        <v>647.9318</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
+        <v>0.24</v>
+      </c>
+      <c r="B13" s="0">
+        <v>651.3642</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>0.26</v>
+      </c>
+      <c r="B14" s="0">
+        <v>654.0938</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
+        <v>0.28</v>
+      </c>
+      <c r="B15" s="0">
+        <v>656.3731</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
+        <v>0.3</v>
+      </c>
+      <c r="B16" s="0">
+        <v>658.3451</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
+        <v>0.32</v>
+      </c>
+      <c r="B17" s="0">
+        <v>660.2305</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0">
+        <v>0.34</v>
+      </c>
+      <c r="B18" s="0">
+        <v>661.936</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0">
+        <v>0.36</v>
+      </c>
+      <c r="B19" s="0">
+        <v>663.4216</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0">
+        <v>0.38</v>
+      </c>
+      <c r="B20" s="0">
+        <v>664.8077</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0">
+        <v>0.4</v>
+      </c>
+      <c r="B21" s="0">
+        <v>666.1189</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0">
+        <v>0.42</v>
+      </c>
+      <c r="B22" s="0">
+        <v>667.2762</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0">
+        <v>0.44</v>
+      </c>
+      <c r="B23" s="0">
+        <v>668.3531</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0">
+        <v>0.46</v>
+      </c>
+      <c r="B24" s="0">
+        <v>669.4976</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0">
+        <v>0.48</v>
+      </c>
+      <c r="B25" s="0">
+        <v>670.6973</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0">
+        <v>0.5</v>
+      </c>
+      <c r="B26" s="0">
+        <v>671.8645</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0">
+        <v>0.52</v>
+      </c>
+      <c r="B27" s="0">
+        <v>672.9091</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0">
+        <v>0.54</v>
+      </c>
+      <c r="B28" s="0">
+        <v>673.7678</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0">
+        <v>0.56</v>
+      </c>
+      <c r="B29" s="0">
+        <v>674.4495</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0">
+        <v>0.58</v>
+      </c>
+      <c r="B30" s="0">
+        <v>674.9888</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0">
+        <v>0.6</v>
+      </c>
+      <c r="B31" s="0">
+        <v>675.5643</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0">
+        <v>0.62</v>
+      </c>
+      <c r="B32" s="0">
+        <v>676.0533</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0">
+        <v>0.64</v>
+      </c>
+      <c r="B33" s="0">
+        <v>676.5903</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0">
+        <v>0.66</v>
+      </c>
+      <c r="B34" s="0">
+        <v>677.107</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0">
+        <v>0.68</v>
+      </c>
+      <c r="B35" s="0">
+        <v>677.9129</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0">
+        <v>0.7</v>
+      </c>
+      <c r="B36" s="0">
+        <v>678.6563</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0">
+        <v>0.72</v>
+      </c>
+      <c r="B37" s="0">
+        <v>679.4305</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0">
+        <v>0.74</v>
+      </c>
+      <c r="B38" s="0">
+        <v>680.293</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0">
+        <v>0.76</v>
+      </c>
+      <c r="B39" s="0">
+        <v>681.0397</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0">
+        <v>0.78</v>
+      </c>
+      <c r="B40" s="0">
+        <v>681.3442</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0">
+        <v>0.8</v>
+      </c>
+      <c r="B41" s="0">
+        <v>681.3311</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0">
+        <v>0.82</v>
+      </c>
+      <c r="B42" s="0">
+        <v>681.1347</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0">
+        <v>0.84</v>
+      </c>
+      <c r="B43" s="0">
+        <v>681.0468</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0">
+        <v>0.86</v>
+      </c>
+      <c r="B44" s="0">
+        <v>681.8292</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="0">
+        <v>0.88</v>
+      </c>
+      <c r="B45" s="0">
+        <v>682.6618</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="0">
+        <v>0.9</v>
+      </c>
+      <c r="B46" s="0">
+        <v>682.6813</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="0">
+        <v>0.92</v>
+      </c>
+      <c r="B47" s="0">
+        <v>683.274</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="0">
+        <v>0.94</v>
+      </c>
+      <c r="B48" s="0">
+        <v>685.7925</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="0">
+        <v>0.96</v>
+      </c>
+      <c r="B49" s="0">
+        <v>692.6241</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="0">
+        <v>0.9905</v>
+      </c>
+      <c r="B50" s="0">
+        <v>701.7722</v>
+      </c>
+    </row>
+    <row r="51"/>
+  </sheetData>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:B53"/>
   <sheetViews>
@@ -10153,7 +11869,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2">
@@ -10571,7 +12287,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:B53"/>
   <sheetViews>
@@ -10581,7 +12297,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2">
@@ -10999,7 +12715,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:B53"/>
   <sheetViews>
@@ -11009,7 +12725,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2">
@@ -11425,1680 +13141,4 @@
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B43"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0">
-        <v>0.0111</v>
-      </c>
-      <c r="B3" s="0">
-        <v>464.6853</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0">
-        <v>0.029</v>
-      </c>
-      <c r="B4" s="0">
-        <v>504.5799</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0">
-        <v>0.0367</v>
-      </c>
-      <c r="B5" s="0">
-        <v>523.0008</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0">
-        <v>0.049</v>
-      </c>
-      <c r="B6" s="0">
-        <v>557.3514</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0">
-        <v>0.0735</v>
-      </c>
-      <c r="B7" s="0">
-        <v>578.9606</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0">
-        <v>0.0981</v>
-      </c>
-      <c r="B8" s="0">
-        <v>606.0771</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0">
-        <v>0.1242</v>
-      </c>
-      <c r="B9" s="0">
-        <v>622.9383</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0">
-        <v>0.1504</v>
-      </c>
-      <c r="B10" s="0">
-        <v>641.8953</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0">
-        <v>0.177</v>
-      </c>
-      <c r="B11" s="0">
-        <v>652.2697</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="0">
-        <v>0.2027</v>
-      </c>
-      <c r="B12" s="0">
-        <v>661.1014</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="0">
-        <v>0.2289</v>
-      </c>
-      <c r="B13" s="0">
-        <v>668.6321</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="0">
-        <v>0.2551</v>
-      </c>
-      <c r="B14" s="0">
-        <v>673.5582</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="0">
-        <v>0.2831</v>
-      </c>
-      <c r="B15" s="0">
-        <v>681.6929</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="0">
-        <v>0.3049</v>
-      </c>
-      <c r="B16" s="0">
-        <v>684.3294</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="0">
-        <v>0.3333</v>
-      </c>
-      <c r="B17" s="0">
-        <v>690.9638</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="0">
-        <v>0.3588</v>
-      </c>
-      <c r="B18" s="0">
-        <v>693.4486</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="0">
-        <v>0.3859</v>
-      </c>
-      <c r="B19" s="0">
-        <v>698.5662</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="0">
-        <v>0.412</v>
-      </c>
-      <c r="B20" s="0">
-        <v>701.0764</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="0">
-        <v>0.4382</v>
-      </c>
-      <c r="B21" s="0">
-        <v>705.7383</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="0">
-        <v>0.4586</v>
-      </c>
-      <c r="B22" s="0">
-        <v>708.3848</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="0">
-        <v>0.4921</v>
-      </c>
-      <c r="B23" s="0">
-        <v>711.7213</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="0">
-        <v>0.5171</v>
-      </c>
-      <c r="B24" s="0">
-        <v>714.3372</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="0">
-        <v>0.545</v>
-      </c>
-      <c r="B25" s="0">
-        <v>716.4712</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="0">
-        <v>0.571</v>
-      </c>
-      <c r="B26" s="0">
-        <v>719.0482</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="0">
-        <v>0.5967</v>
-      </c>
-      <c r="B27" s="0">
-        <v>721.0356</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="0">
-        <v>0.6229</v>
-      </c>
-      <c r="B28" s="0">
-        <v>722.4228</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="0">
-        <v>0.6491</v>
-      </c>
-      <c r="B29" s="0">
-        <v>724.8576</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="0">
-        <v>0.6754</v>
-      </c>
-      <c r="B30" s="0">
-        <v>726.3515</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="0">
-        <v>0.7014</v>
-      </c>
-      <c r="B31" s="0">
-        <v>728.8777</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="0">
-        <v>0.7276</v>
-      </c>
-      <c r="B32" s="0">
-        <v>729.98</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="0">
-        <v>0.7537</v>
-      </c>
-      <c r="B33" s="0">
-        <v>732.0108</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="0">
-        <v>0.7798</v>
-      </c>
-      <c r="B34" s="0">
-        <v>733.2565</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="0">
-        <v>0.806</v>
-      </c>
-      <c r="B35" s="0">
-        <v>735.3515</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="0">
-        <v>0.8321</v>
-      </c>
-      <c r="B36" s="0">
-        <v>737.4389</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="0">
-        <v>0.8583</v>
-      </c>
-      <c r="B37" s="0">
-        <v>738.6733</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="0">
-        <v>0.8845</v>
-      </c>
-      <c r="B38" s="0">
-        <v>741.7422</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="0">
-        <v>0.9106</v>
-      </c>
-      <c r="B39" s="0">
-        <v>742.4103</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="0">
-        <v>0.9368</v>
-      </c>
-      <c r="B40" s="0">
-        <v>746.2606</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="0">
-        <v>0.9629</v>
-      </c>
-      <c r="B41" s="0">
-        <v>751.5831</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="0">
-        <v>0.9891</v>
-      </c>
-      <c r="B42" s="0">
-        <v>763.6548</v>
-      </c>
-    </row>
-    <row r="43"/>
-  </sheetData>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B34"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0">
-        <v>0.0128</v>
-      </c>
-      <c r="B3" s="0">
-        <v>456.1912</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0">
-        <v>0.0497</v>
-      </c>
-      <c r="B4" s="0">
-        <v>548.3219</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0">
-        <v>0.0856</v>
-      </c>
-      <c r="B5" s="0">
-        <v>569.4275</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0">
-        <v>0.1117</v>
-      </c>
-      <c r="B6" s="0">
-        <v>582.6989</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0">
-        <v>0.1365</v>
-      </c>
-      <c r="B7" s="0">
-        <v>591.3891</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0">
-        <v>0.1681</v>
-      </c>
-      <c r="B8" s="0">
-        <v>599.7448</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0">
-        <v>0.1943</v>
-      </c>
-      <c r="B9" s="0">
-        <v>607.1217</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0">
-        <v>0.2192</v>
-      </c>
-      <c r="B10" s="0">
-        <v>610.624</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0">
-        <v>0.2478</v>
-      </c>
-      <c r="B11" s="0">
-        <v>614.9772</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="0">
-        <v>0.2724</v>
-      </c>
-      <c r="B12" s="0">
-        <v>616.818</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="0">
-        <v>0.3003</v>
-      </c>
-      <c r="B13" s="0">
-        <v>619.6081</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="0">
-        <v>0.3265</v>
-      </c>
-      <c r="B14" s="0">
-        <v>621.3581</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="0">
-        <v>0.3527</v>
-      </c>
-      <c r="B15" s="0">
-        <v>622.995</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="0">
-        <v>0.3767</v>
-      </c>
-      <c r="B16" s="0">
-        <v>623.9582</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="0">
-        <v>0.4042</v>
-      </c>
-      <c r="B17" s="0">
-        <v>625.1237</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="0">
-        <v>0.4313</v>
-      </c>
-      <c r="B18" s="0">
-        <v>626.096</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="0">
-        <v>0.4575</v>
-      </c>
-      <c r="B19" s="0">
-        <v>627.4501</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="0">
-        <v>0.4833</v>
-      </c>
-      <c r="B20" s="0">
-        <v>627.6364</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="0">
-        <v>0.5034</v>
-      </c>
-      <c r="B21" s="0">
-        <v>628.2223</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="0">
-        <v>0.5509</v>
-      </c>
-      <c r="B22" s="0">
-        <v>630.8757</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="0">
-        <v>0.6016</v>
-      </c>
-      <c r="B23" s="0">
-        <v>631.4388</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="0">
-        <v>0.6508</v>
-      </c>
-      <c r="B24" s="0">
-        <v>631.6286</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="0">
-        <v>0.7016</v>
-      </c>
-      <c r="B25" s="0">
-        <v>633.021</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="0">
-        <v>0.7515</v>
-      </c>
-      <c r="B26" s="0">
-        <v>632.9885</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="0">
-        <v>0.8015</v>
-      </c>
-      <c r="B27" s="0">
-        <v>632.9444</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="0">
-        <v>0.8522</v>
-      </c>
-      <c r="B28" s="0">
-        <v>633.7337</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="0">
-        <v>0.8785</v>
-      </c>
-      <c r="B29" s="0">
-        <v>633.7306</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="0">
-        <v>0.9047</v>
-      </c>
-      <c r="B30" s="0">
-        <v>634.7454</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="0">
-        <v>0.9283</v>
-      </c>
-      <c r="B31" s="0">
-        <v>635.5348</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="0">
-        <v>0.953</v>
-      </c>
-      <c r="B32" s="0">
-        <v>637.1237</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="0">
-        <v>0.9939</v>
-      </c>
-      <c r="B33" s="0">
-        <v>653.8105</v>
-      </c>
-    </row>
-    <row r="34"/>
-  </sheetData>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B51"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0">
-        <v>0.04</v>
-      </c>
-      <c r="B3" s="0">
-        <v>563.1683</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0">
-        <v>0.08</v>
-      </c>
-      <c r="B4" s="0">
-        <v>612.3285</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0">
-        <v>0.1</v>
-      </c>
-      <c r="B5" s="0">
-        <v>627.2217</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0">
-        <v>0.12</v>
-      </c>
-      <c r="B6" s="0">
-        <v>637.0156</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0">
-        <v>0.14</v>
-      </c>
-      <c r="B7" s="0">
-        <v>648.9676</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0">
-        <v>0.16</v>
-      </c>
-      <c r="B8" s="0">
-        <v>655.8077</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0">
-        <v>0.18</v>
-      </c>
-      <c r="B9" s="0">
-        <v>656.4085</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0">
-        <v>0.24</v>
-      </c>
-      <c r="B10" s="0">
-        <v>668.9594</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0">
-        <v>0.26</v>
-      </c>
-      <c r="B11" s="0">
-        <v>671.5979</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="0">
-        <v>0.42</v>
-      </c>
-      <c r="B12" s="0">
-        <v>681.6782</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="0">
-        <v>0.48</v>
-      </c>
-      <c r="B13" s="0">
-        <v>684.9767</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="0">
-        <v>0.5</v>
-      </c>
-      <c r="B14" s="0">
-        <v>684.475</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="0">
-        <v>0.52</v>
-      </c>
-      <c r="B15" s="0">
-        <v>686.666</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="0">
-        <v>0.54</v>
-      </c>
-      <c r="B16" s="0">
-        <v>687.0393</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="0">
-        <v>0.56</v>
-      </c>
-      <c r="B17" s="0">
-        <v>686.8471</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="0">
-        <v>0.58</v>
-      </c>
-      <c r="B18" s="0">
-        <v>688.3098</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="0">
-        <v>0.6</v>
-      </c>
-      <c r="B19" s="0">
-        <v>688.0851</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="0">
-        <v>0.62</v>
-      </c>
-      <c r="B20" s="0">
-        <v>688.2336</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="0">
-        <v>0.64</v>
-      </c>
-      <c r="B21" s="0">
-        <v>688.3248</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="0">
-        <v>0.66</v>
-      </c>
-      <c r="B22" s="0">
-        <v>688.1919</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="0">
-        <v>0.68</v>
-      </c>
-      <c r="B23" s="0">
-        <v>688.9651</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="0">
-        <v>0.7</v>
-      </c>
-      <c r="B24" s="0">
-        <v>689.6812</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="0">
-        <v>0.72</v>
-      </c>
-      <c r="B25" s="0">
-        <v>689.9893</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="0">
-        <v>0.74</v>
-      </c>
-      <c r="B26" s="0">
-        <v>690.1015</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="0">
-        <v>0.76</v>
-      </c>
-      <c r="B27" s="0">
-        <v>690.0756</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="0">
-        <v>0.78</v>
-      </c>
-      <c r="B28" s="0">
-        <v>690.148</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="0">
-        <v>0.8</v>
-      </c>
-      <c r="B29" s="0">
-        <v>690.101</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="0">
-        <v>0.82</v>
-      </c>
-      <c r="B30" s="0">
-        <v>690.2924</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="0">
-        <v>0.84</v>
-      </c>
-      <c r="B31" s="0">
-        <v>690.5773</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="0">
-        <v>0.86</v>
-      </c>
-      <c r="B32" s="0">
-        <v>691.0181</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="0">
-        <v>0.88</v>
-      </c>
-      <c r="B33" s="0">
-        <v>691.3732</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="0">
-        <v>0.9</v>
-      </c>
-      <c r="B34" s="0">
-        <v>692.1722</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="0">
-        <v>0.92</v>
-      </c>
-      <c r="B35" s="0">
-        <v>693.165</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="0">
-        <v>0.94</v>
-      </c>
-      <c r="B36" s="0">
-        <v>694.0763</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="0">
-        <v>0.96</v>
-      </c>
-      <c r="B37" s="0">
-        <v>698.3489</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="0">
-        <v>0.98</v>
-      </c>
-      <c r="B38" s="0">
-        <v>707.2193</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="0">
-        <v>0.3986</v>
-      </c>
-      <c r="B39" s="0">
-        <v>681.7732</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="0">
-        <v>0.3605</v>
-      </c>
-      <c r="B40" s="0">
-        <v>679.5843</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="0">
-        <v>0.3399</v>
-      </c>
-      <c r="B41" s="0">
-        <v>677.3556</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="0">
-        <v>0.312</v>
-      </c>
-      <c r="B42" s="0">
-        <v>676.2811</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="0">
-        <v>0.2884</v>
-      </c>
-      <c r="B43" s="0">
-        <v>674.0594</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="0">
-        <v>0.2132</v>
-      </c>
-      <c r="B44" s="0">
-        <v>663.9902</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="0">
-        <v>0.0505</v>
-      </c>
-      <c r="B45" s="0">
-        <v>585.8523</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="0">
-        <v>0.0597</v>
-      </c>
-      <c r="B46" s="0">
-        <v>596.0714</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="0">
-        <v>0.0124</v>
-      </c>
-      <c r="B47" s="0">
-        <v>497.1906</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="0">
-        <v>0.9949</v>
-      </c>
-      <c r="B48" s="0">
-        <v>715.6881</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="0">
-        <v>0.4614</v>
-      </c>
-      <c r="B49" s="0">
-        <v>685.0436</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="0">
-        <v>0.4398</v>
-      </c>
-      <c r="B50" s="0">
-        <v>683.9551</v>
-      </c>
-    </row>
-    <row r="51"/>
-  </sheetData>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B33"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0">
-        <v>0.05</v>
-      </c>
-      <c r="B3" s="0">
-        <v>614.7199</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0">
-        <v>0.0988</v>
-      </c>
-      <c r="B4" s="0">
-        <v>678.8873</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0">
-        <v>0.1504</v>
-      </c>
-      <c r="B5" s="0">
-        <v>712.1587</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0">
-        <v>0.187</v>
-      </c>
-      <c r="B6" s="0">
-        <v>730.2519</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0">
-        <v>0.2118</v>
-      </c>
-      <c r="B7" s="0">
-        <v>738.2256</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0">
-        <v>0.2397</v>
-      </c>
-      <c r="B8" s="0">
-        <v>747.4365</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0">
-        <v>0.2659</v>
-      </c>
-      <c r="B9" s="0">
-        <v>751.9574</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0">
-        <v>0.2921</v>
-      </c>
-      <c r="B10" s="0">
-        <v>757.779</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0">
-        <v>0.3171</v>
-      </c>
-      <c r="B11" s="0">
-        <v>760.2021</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="0">
-        <v>0.3445</v>
-      </c>
-      <c r="B12" s="0">
-        <v>763.9255</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="0">
-        <v>0.3716</v>
-      </c>
-      <c r="B13" s="0">
-        <v>766.2501</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="0">
-        <v>0.3992</v>
-      </c>
-      <c r="B14" s="0">
-        <v>768.7961</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="0">
-        <v>0.4231</v>
-      </c>
-      <c r="B15" s="0">
-        <v>773.1452</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="0">
-        <v>0.451</v>
-      </c>
-      <c r="B16" s="0">
-        <v>773.2757</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="0">
-        <v>0.5001</v>
-      </c>
-      <c r="B17" s="0">
-        <v>776.3954</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="0">
-        <v>0.55</v>
-      </c>
-      <c r="B18" s="0">
-        <v>778.1243</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="0">
-        <v>0.6016</v>
-      </c>
-      <c r="B19" s="0">
-        <v>780.0635</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="0">
-        <v>0.6516</v>
-      </c>
-      <c r="B20" s="0">
-        <v>782.7591</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="0">
-        <v>0.7007</v>
-      </c>
-      <c r="B21" s="0">
-        <v>784.1552</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="0">
-        <v>0.7409</v>
-      </c>
-      <c r="B22" s="0">
-        <v>785.5418</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="0">
-        <v>0.796</v>
-      </c>
-      <c r="B23" s="0">
-        <v>788.1558</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="0">
-        <v>0.8514</v>
-      </c>
-      <c r="B24" s="0">
-        <v>788.3536</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="0">
-        <v>0.9014</v>
-      </c>
-      <c r="B25" s="0">
-        <v>794.2892</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="0">
-        <v>0.9522</v>
-      </c>
-      <c r="B26" s="0">
-        <v>796.9624</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="0">
-        <v>0.8115</v>
-      </c>
-      <c r="B27" s="0">
-        <v>788.9244</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="0">
-        <v>0.7621</v>
-      </c>
-      <c r="B28" s="0">
-        <v>787.8991</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="0">
-        <v>0.9949</v>
-      </c>
-      <c r="B29" s="0">
-        <v>802.1609</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="0">
-        <v>0.9835</v>
-      </c>
-      <c r="B30" s="0">
-        <v>801.0489</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="0">
-        <v>0.0124</v>
-      </c>
-      <c r="B31" s="0">
-        <v>523.36</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="0">
-        <v>0.0072</v>
-      </c>
-      <c r="B32" s="0">
-        <v>504.0291</v>
-      </c>
-    </row>
-    <row r="33"/>
-  </sheetData>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B46"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0">
-        <v>0.0085</v>
-      </c>
-      <c r="B3" s="0">
-        <v>423.685</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0">
-        <v>0.0054</v>
-      </c>
-      <c r="B4" s="0">
-        <v>177.111</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0">
-        <v>0.0071</v>
-      </c>
-      <c r="B5" s="0">
-        <v>328.0166</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0">
-        <v>0.0071</v>
-      </c>
-      <c r="B6" s="0">
-        <v>261.7469</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0">
-        <v>0.0251</v>
-      </c>
-      <c r="B7" s="0">
-        <v>473.1032</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0">
-        <v>0.0366</v>
-      </c>
-      <c r="B8" s="0">
-        <v>501.0004</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0">
-        <v>0.0491</v>
-      </c>
-      <c r="B9" s="0">
-        <v>531.6569</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0">
-        <v>0.0734</v>
-      </c>
-      <c r="B10" s="0">
-        <v>566.1842</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0">
-        <v>0.0967</v>
-      </c>
-      <c r="B11" s="0">
-        <v>595.8675</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="0">
-        <v>0.1234</v>
-      </c>
-      <c r="B12" s="0">
-        <v>619.5017</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="0">
-        <v>0.1496</v>
-      </c>
-      <c r="B13" s="0">
-        <v>641.2918</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="0">
-        <v>0.1758</v>
-      </c>
-      <c r="B14" s="0">
-        <v>656.8187</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="0">
-        <v>0.202</v>
-      </c>
-      <c r="B15" s="0">
-        <v>671.9872</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="0">
-        <v>0.2282</v>
-      </c>
-      <c r="B16" s="0">
-        <v>683.7547</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="0">
-        <v>0.2544</v>
-      </c>
-      <c r="B17" s="0">
-        <v>692.3796</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="0">
-        <v>0.2806</v>
-      </c>
-      <c r="B18" s="0">
-        <v>701.0852</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="0">
-        <v>0.3068</v>
-      </c>
-      <c r="B19" s="0">
-        <v>706.624</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="0">
-        <v>0.333</v>
-      </c>
-      <c r="B20" s="0">
-        <v>713.8594</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="0">
-        <v>0.3592</v>
-      </c>
-      <c r="B21" s="0">
-        <v>717.419</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="0">
-        <v>0.386</v>
-      </c>
-      <c r="B22" s="0">
-        <v>721.318</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="0">
-        <v>0.4116</v>
-      </c>
-      <c r="B23" s="0">
-        <v>724.2554</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="0">
-        <v>0.4384</v>
-      </c>
-      <c r="B24" s="0">
-        <v>729.3736</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="0">
-        <v>0.4639</v>
-      </c>
-      <c r="B25" s="0">
-        <v>731.8259</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="0">
-        <v>0.491</v>
-      </c>
-      <c r="B26" s="0">
-        <v>734.64</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="0">
-        <v>0.5165</v>
-      </c>
-      <c r="B27" s="0">
-        <v>737.3438</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="0">
-        <v>0.5476</v>
-      </c>
-      <c r="B28" s="0">
-        <v>740.9111</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="0">
-        <v>0.5747</v>
-      </c>
-      <c r="B29" s="0">
-        <v>742.872</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="0">
-        <v>0.6</v>
-      </c>
-      <c r="B30" s="0">
-        <v>745.5722</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="0">
-        <v>0.6278</v>
-      </c>
-      <c r="B31" s="0">
-        <v>747.6275</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="0">
-        <v>0.6533</v>
-      </c>
-      <c r="B32" s="0">
-        <v>750.8457</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="0">
-        <v>0.6803</v>
-      </c>
-      <c r="B33" s="0">
-        <v>752.9522</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="0">
-        <v>0.7065</v>
-      </c>
-      <c r="B34" s="0">
-        <v>755.3657</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="0">
-        <v>0.7327</v>
-      </c>
-      <c r="B35" s="0">
-        <v>757.9073</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="0">
-        <v>0.7589</v>
-      </c>
-      <c r="B36" s="0">
-        <v>759.5631</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="0">
-        <v>0.7867</v>
-      </c>
-      <c r="B37" s="0">
-        <v>764.4007</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="0">
-        <v>0.8104</v>
-      </c>
-      <c r="B38" s="0">
-        <v>765.3487</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="0">
-        <v>0.8375</v>
-      </c>
-      <c r="B39" s="0">
-        <v>770.3134</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="0">
-        <v>0.8631</v>
-      </c>
-      <c r="B40" s="0">
-        <v>773.6751</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="0">
-        <v>0.8901</v>
-      </c>
-      <c r="B41" s="0">
-        <v>780.7204</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="0">
-        <v>0.915</v>
-      </c>
-      <c r="B42" s="0">
-        <v>785.0163</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="0">
-        <v>0.9423</v>
-      </c>
-      <c r="B43" s="0">
-        <v>790.9834</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="0">
-        <v>0.9685</v>
-      </c>
-      <c r="B44" s="0">
-        <v>805.3818</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="0">
-        <v>0.9939</v>
-      </c>
-      <c r="B45" s="0">
-        <v>827.0059</v>
-      </c>
-    </row>
-    <row r="46"/>
-  </sheetData>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>